--- a/data/base_de_datos_3_var.xlsx
+++ b/data/base_de_datos_3_var.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edgar Ramos Castro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{940DE165-C892-46B0-A347-BBFA3DA4AA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A33967-19F6-4459-9DB4-FA99C856621B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6B1D97B7-554E-4851-913C-2DBB716F8FC5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
   <si>
     <t>Area geografica</t>
   </si>
@@ -42,9 +42,6 @@
     <t>11,3</t>
   </si>
   <si>
-    <t>Mendoza</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 7,9</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t xml:space="preserve"> 3,4</t>
   </si>
   <si>
-    <t>San Luis</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 3,5</t>
   </si>
   <si>
@@ -78,15 +72,9 @@
     <t xml:space="preserve"> 8,6</t>
   </si>
   <si>
-    <t>Catamarca</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 7,6</t>
   </si>
   <si>
-    <t xml:space="preserve">Tucumán </t>
-  </si>
-  <si>
     <t xml:space="preserve">Jujuy </t>
   </si>
   <si>
@@ -114,21 +102,12 @@
     <t xml:space="preserve"> 4,4</t>
   </si>
   <si>
-    <t>Córdoba</t>
-  </si>
-  <si>
     <t>11,0</t>
   </si>
   <si>
     <t>La Plata</t>
   </si>
   <si>
-    <t>Rosario</t>
-  </si>
-  <si>
-    <t>Santa Fe</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 5,1</t>
   </si>
   <si>
@@ -223,6 +202,30 @@
   </si>
   <si>
     <t>IDH_2019</t>
+  </si>
+  <si>
+    <t>Gran Mendoza</t>
+  </si>
+  <si>
+    <t>Gran San Juan</t>
+  </si>
+  <si>
+    <t>Gran San Luis</t>
+  </si>
+  <si>
+    <t>Gran Catamarca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gran Tucumán </t>
+  </si>
+  <si>
+    <t>Gran Córdoba</t>
+  </si>
+  <si>
+    <t>Gran Rosario</t>
+  </si>
+  <si>
+    <t>Gran Santa Fe</t>
   </si>
 </sst>
 </file>
@@ -576,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B218CA-342D-4CE8-9A9E-780459DD55EE}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,19 +594,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -617,13 +620,13 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E2">
         <v>2019</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -637,462 +640,462 @@
         <v>209</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E3">
         <v>2019</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
       <c r="C4">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E4">
         <v>2019</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
       <c r="C5">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>2019</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>2019</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E7">
         <v>2019</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E8">
         <v>2019</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>2019</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E10">
         <v>2019</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E11">
         <v>2019</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E12">
         <v>2019</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E13">
         <v>2019</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E14">
         <v>2019</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E15">
         <v>2019</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>2019</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E17">
         <v>2019</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>2019</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>2019</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E20">
         <v>2019</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <v>2019</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>2019</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>2019</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E24">
         <v>2019</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E25">
         <v>2019</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E26">
         <v>2019</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E27">
         <v>2019</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>2019</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/base_de_datos_3_var.xlsx
+++ b/data/base_de_datos_3_var.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edgar Ramos Castro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A33967-19F6-4459-9DB4-FA99C856621B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F959C9-E157-4218-9756-CCEBF48A8AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6B1D97B7-554E-4851-913C-2DBB716F8FC5}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
   <si>
-    <t>Area geografica</t>
-  </si>
-  <si>
     <t>Ciudad Autónoma de Buenos Aires</t>
   </si>
   <si>
@@ -226,6 +223,9 @@
   </si>
   <si>
     <t>Gran Santa Fe</t>
+  </si>
+  <si>
+    <t>Provincia</t>
   </si>
 </sst>
 </file>
@@ -579,9 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B218CA-342D-4CE8-9A9E-780459DD55EE}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -591,511 +589,511 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>41</v>
-      </c>
-      <c r="F1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
       <c r="C2">
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2">
         <v>2019</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
       <c r="C3">
         <v>209</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3">
         <v>2019</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4">
         <v>2019</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5">
         <v>2019</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>2019</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7">
         <v>2019</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <v>2019</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
       <c r="E9">
         <v>2019</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10">
         <v>2019</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11">
         <v>2019</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12">
         <v>2019</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
         <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>2019</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14">
         <v>2019</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
         <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15">
         <v>2019</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
         <v>2019</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>2019</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>2019</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>2019</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20">
         <v>2019</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
       <c r="E21">
         <v>2019</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>2019</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>2019</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24">
         <v>2019</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
         <v>33</v>
       </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
       <c r="E25">
         <v>2019</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26">
         <v>2019</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
         <v>36</v>
       </c>
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
       <c r="E27">
         <v>2019</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E28">
         <v>2019</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
